--- a/Sequences.xlsx
+++ b/Sequences.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark Sequences" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="freiburg3_long_office_household" vbProcedure="false">'Benchmark Sequences'!$C$79</definedName>
@@ -70,382 +71,382 @@
     <t xml:space="preserve">Alderly</t>
   </si>
   <si>
+    <t xml:space="preserve">night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMU-VL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUM RGBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg1_desk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HandHeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg1_360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg1_room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUM VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corridor4_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PennCOSYVIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EuRoC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH_04_difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1_03_difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room4_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH_05_difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2_03_difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room6_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room1_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room3_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room5_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room2_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corridor3_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corridor5_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corridor1_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corridor2_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KITTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICL NUIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr kt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synthesized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of kt-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr kt3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of kt-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg2_360_kidnap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr kt0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of kt0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg2_pioneer_360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GroundRobot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg3_long_office_household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg2_desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg2_pioneer_slam3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg2_large_no_loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2_01_easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg2_pioneer_slam2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1_01_easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH_02_easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg2_pioneer_slam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg2_large_with_loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH_01_easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaga 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARKING-6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARKING-0L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hololens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeting_room_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head-mounted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARKING-2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPUS-0L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPUS-2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ford Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ford Campus 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPUS-RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeting_room_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ford Campus 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07</t>
+  </si>
+  <si>
     <t xml:space="preserve">day</t>
   </si>
   <si>
-    <t xml:space="preserve">Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMU-VL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EuRoC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH_01_easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indoor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH_02_easy</t>
+    <t xml:space="preserve">RobotCar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-14-15-16-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-12-05-11-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-18-13-20-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umich NCLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaga Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg1_desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr kt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of kt-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1_02_medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freiburg2_360_hemisphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2_02_medium</t>
   </si>
   <si>
     <t xml:space="preserve">MH_03_medium</t>
   </si>
   <si>
-    <t xml:space="preserve">MH_04_difficult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH_05_difficult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1_01_easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1_02_medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1_03_difficult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2_01_easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2_02_medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2_03_difficult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ford Campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ford Campus 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ford Campus 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hololens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meeting_room_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head-mounted</t>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magistrale5_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magistrale3_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magistrale2_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magistrale6_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magistrale4_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magistrale1_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs</t>
   </si>
   <si>
     <t xml:space="preserve">corridor_with_loop</t>
   </si>
   <si>
-    <t xml:space="preserve">meeting_room_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICL NUIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr kt0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synthesized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr kt1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr kt2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr kt3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of kt-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of kt-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of kt-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of kt0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KITTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaga 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARKING-0L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARKING-2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARKING-6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPUS-0L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPUS-2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPUS-RT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaga Urban</t>
+    <t xml:space="preserve">outdoors4_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdoors8_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdoors3_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdoors5_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdoors2_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdoors7_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdoors1_512_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outdoors6_512_16</t>
   </si>
   <si>
     <t xml:space="preserve">NewCollege</t>
   </si>
   <si>
     <t xml:space="preserve">left_cam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GroundRobot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autumn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PennCOSYVIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HandHeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RobotCar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-12-05-11-09-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-11-18-13-20-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-07-14-15-16-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUM RGBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg1_360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg1_desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg1_desk2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg1_room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg2_360_hemisphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg2_360_kidnap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg2_desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg2_large_no_loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg2_large_with_loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg2_pioneer_360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg2_pioneer_slam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg2_pioneer_slam2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg2_pioneer_slam3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freiburg3_long_office_household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUM VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corridor1_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corridor2_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corridor3_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corridor4_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corridor5_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magistrale1_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magistrale2_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magistrale3_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magistrale4_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magistrale5_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magistrale6_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room1_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room2_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room3_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room4_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room5_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room6_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoors1_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoors2_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoors3_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoors4_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoors5_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoors6_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoors7_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outdoors8_512_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umich NCLT</t>
   </si>
   <si>
     <t xml:space="preserve">Zurich Urban MAV</t>
@@ -721,24 +722,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="34.969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="24.6836734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.75"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="24.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.8979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="4" style="1" width="17.8979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.5408163265306"/>
     <col collapsed="false" hidden="true" max="11" min="11" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="13" min="12" style="4" width="0"/>
-    <col collapsed="false" hidden="false" max="1023" min="14" style="5" width="15.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="15.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1023" min="14" style="5" width="16.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="16.765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="65.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -798,6 +798,13 @@
       <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <f aca="false">N2/105</f>
+        <v>0.333333333333333</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
@@ -816,20 +823,20 @@
         <v>17</v>
       </c>
       <c r="F3" s="10" t="n">
-        <f aca="false">9*60+44</f>
-        <v>584</v>
+        <f aca="false">11*60+19</f>
+        <v>679</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -840,10 +847,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>20101019</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>16</v>
@@ -851,21 +858,20 @@
       <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="n">
-        <f aca="false">11*60+19</f>
-        <v>679</v>
+      <c r="F4" s="13" t="n">
+        <v>1720.4</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
@@ -876,19 +882,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="n">
-        <v>20101221</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="13" t="n">
-        <v>1851.2</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>18</v>
@@ -897,10 +903,10 @@
         <v>19</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
@@ -911,19 +917,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="n">
-        <v>20101028</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>1918.86666666667</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>29</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>18</v>
@@ -932,10 +938,10 @@
         <v>19</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="8"/>
@@ -946,19 +952,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="n">
-        <v>20100901</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="13" t="n">
-        <v>2324.53333333333</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>49</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>18</v>
@@ -967,10 +973,10 @@
         <v>19</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="8"/>
@@ -981,19 +987,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="n">
-        <v>20101001</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>1832.73333333333</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>96</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>18</v>
@@ -1002,10 +1008,10 @@
         <v>19</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="8"/>
@@ -1016,19 +1022,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>20101008</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="13" t="n">
-        <v>1982.6</v>
+      <c r="F9" s="10" t="n">
+        <v>97</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>18</v>
@@ -1037,10 +1043,10 @@
         <v>19</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="8"/>
@@ -1051,31 +1057,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>20101019</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>1720.4</v>
+        <v>25</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>102</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="8"/>
@@ -1086,31 +1092,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>29</v>
+      <c r="J11" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="8"/>
@@ -1121,31 +1127,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1153,31 +1159,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>21</v>
+      <c r="J13" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1185,31 +1191,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1217,31 +1226,34 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>116</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="5" t="n">
         <v>33</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="10" t="n">
-        <v>114</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1249,31 +1261,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>29</v>
+      <c r="J16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1281,31 +1296,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>21</v>
+      <c r="J17" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1313,31 +1328,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>23</v>
+      <c r="J18" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1345,31 +1360,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1377,31 +1392,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1409,31 +1424,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1441,31 +1456,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1473,31 +1488,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>569</v>
+        <v>300</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1505,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>641</v>
+        <v>339</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1537,31 +1552,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>409</v>
+        <v>165</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>23</v>
+      <c r="J25" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1569,31 +1584,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>509</v>
+        <v>423</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1601,31 +1616,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>51</v>
+        <v>483</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1633,31 +1648,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="F28" s="10" t="n">
-        <v>33</v>
-      </c>
       <c r="G28" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1665,31 +1680,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>30</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1697,31 +1712,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1729,31 +1744,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F31" s="10" t="n">
         <v>42</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1761,31 +1776,31 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1793,31 +1808,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1825,31 +1840,31 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1857,31 +1872,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E35" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1889,31 +1904,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E36" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1921,31 +1936,31 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1953,31 +1968,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>471</v>
+        <v>87</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1985,31 +2000,31 @@
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2017,31 +2032,31 @@
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>483</v>
+        <v>112</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2049,31 +2064,31 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2081,31 +2096,31 @@
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2113,31 +2128,31 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E43" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>423</v>
+        <v>116</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2145,31 +2160,31 @@
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2177,31 +2192,31 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2209,31 +2224,31 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="14" t="n">
-        <v>430.1035</v>
+        <v>25</v>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>156</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2241,31 +2256,31 @@
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="14" t="n">
-        <v>809.031</v>
+        <v>25</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>173</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2273,31 +2288,31 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="14" t="n">
-        <v>292.0038</v>
+        <v>25</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>186</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2305,10 +2320,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>16</v>
@@ -2317,19 +2332,19 @@
         <v>17</v>
       </c>
       <c r="F49" s="14" t="n">
-        <v>197.1778</v>
+        <v>292.0038</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2337,10 +2352,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>16</v>
@@ -2349,19 +2364,19 @@
         <v>17</v>
       </c>
       <c r="F50" s="14" t="n">
-        <v>204.3274</v>
+        <v>430.1035</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2369,31 +2384,31 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="14" t="n">
-        <v>459.8307</v>
+        <v>25</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>641</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2401,10 +2416,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>16</v>
@@ -2412,21 +2427,20 @@
       <c r="E52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="10" t="n">
-        <f aca="false">3600+34*60+54</f>
-        <v>5694</v>
+      <c r="F52" s="14" t="n">
+        <v>809.031</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2434,31 +2448,32 @@
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="10" t="n">
-        <v>2634</v>
+        <f aca="false">9*3600+56*60+7</f>
+        <v>35767</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2466,13 +2481,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>17</v>
@@ -2482,16 +2497,16 @@
         <v>35767</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2499,13 +2514,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>17</v>
@@ -2515,16 +2530,16 @@
         <v>35767</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2532,13 +2547,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>17</v>
@@ -2548,16 +2563,16 @@
         <v>35767</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2565,32 +2580,31 @@
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="10" t="n">
-        <f aca="false">9*3600+56*60+7</f>
-        <v>35767</v>
+      <c r="F57" s="14" t="n">
+        <v>197.1778</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2598,31 +2612,31 @@
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="10" t="n">
-        <v>97</v>
+      <c r="F58" s="14" t="n">
+        <v>204.3274</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2630,31 +2644,31 @@
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="10" t="n">
-        <v>102</v>
+        <v>368</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2662,31 +2676,31 @@
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="10" t="n">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="F60" s="14" t="n">
+        <v>459.8307</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2694,31 +2708,31 @@
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F61" s="10" t="n">
-        <v>168</v>
+        <v>509</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2726,10 +2740,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>16</v>
@@ -2738,19 +2752,19 @@
         <v>17</v>
       </c>
       <c r="F62" s="10" t="n">
-        <v>2193</v>
+        <v>569</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2758,10 +2772,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>16</v>
@@ -2770,19 +2784,19 @@
         <v>17</v>
       </c>
       <c r="F63" s="10" t="n">
-        <v>2374</v>
+        <v>114</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2790,10 +2804,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>16</v>
@@ -2802,19 +2816,19 @@
         <v>17</v>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1566</v>
+        <v>114</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2822,31 +2836,32 @@
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>29</v>
+        <f aca="false">9*60+44</f>
+        <v>584</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2854,31 +2869,31 @@
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F66" s="10" t="n">
-        <v>24</v>
+        <v>1566</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2886,31 +2901,31 @@
         <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>101</v>
+        <v>21</v>
+      </c>
+      <c r="C67" s="10" t="n">
+        <v>20101001</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="10" t="n">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="F67" s="13" t="n">
+        <v>1832.73333333333</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2918,31 +2933,31 @@
         <v>66</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>102</v>
+        <v>21</v>
+      </c>
+      <c r="C68" s="10" t="n">
+        <v>20101221</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F68" s="10" t="n">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>1851.2</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2950,31 +2965,31 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>103</v>
+        <v>21</v>
+      </c>
+      <c r="C69" s="10" t="n">
+        <v>20101028</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F69" s="10" t="n">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="F69" s="13" t="n">
+        <v>1918.86666666667</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2982,31 +2997,31 @@
         <v>68</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+      <c r="C70" s="10" t="n">
+        <v>20101008</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="10" t="n">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>1982.6</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3014,31 +3029,31 @@
         <v>69</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F71" s="10" t="n">
-        <v>48</v>
+        <v>2193</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3046,31 +3061,31 @@
         <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+      <c r="C72" s="10" t="n">
+        <v>20100901</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" s="10" t="n">
-        <v>99</v>
+        <v>17</v>
+      </c>
+      <c r="F72" s="13" t="n">
+        <v>2324.53333333333</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3078,31 +3093,31 @@
         <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>112</v>
+        <v>2374</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3110,31 +3125,31 @@
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="C74" s="15" t="n">
+        <v>40916</v>
+      </c>
       <c r="D74" s="10" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>173</v>
+        <v>5588</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J74" s="10" t="s">
-        <v>29</v>
+      <c r="J74" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3142,31 +3157,32 @@
         <v>73</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>109</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>73</v>
+        <f aca="false">3600+34*60+54</f>
+        <v>5694</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3174,31 +3190,31 @@
         <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="C76" s="15" t="n">
+        <v>40941</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>156</v>
+        <v>5800</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J76" s="10" t="s">
-        <v>29</v>
+      <c r="J76" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3206,31 +3222,31 @@
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3238,31 +3254,31 @@
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3270,31 +3286,31 @@
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3302,31 +3318,31 @@
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3334,31 +3350,31 @@
         <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="D81" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>339</v>
+        <v>91</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>23</v>
+      <c r="J81" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3366,31 +3382,31 @@
         <v>80</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="C82" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="10" t="n">
         <v>117</v>
       </c>
-      <c r="D82" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" s="10" t="n">
-        <v>290</v>
-      </c>
       <c r="G82" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3398,31 +3414,31 @@
         <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J83" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3430,31 +3446,31 @@
         <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3462,31 +3478,31 @@
         <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>772</v>
+        <v>446</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3494,31 +3510,31 @@
         <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3526,31 +3542,31 @@
         <v>85</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F87" s="10" t="n">
         <v>485</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3558,31 +3574,31 @@
         <v>86</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>623</v>
+        <v>540</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3590,31 +3606,31 @@
         <v>87</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>446</v>
+        <v>574</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3622,31 +3638,31 @@
         <v>88</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>574</v>
+        <v>623</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3654,31 +3670,31 @@
         <v>89</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>141</v>
+        <v>772</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3686,31 +3702,31 @@
         <v>90</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3718,31 +3734,31 @@
         <v>91</v>
       </c>
       <c r="B93" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="10" t="n">
         <v>114</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F93" s="10" t="n">
-        <v>141</v>
-      </c>
       <c r="G93" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3750,31 +3766,31 @@
         <v>92</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3782,31 +3798,31 @@
         <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3814,31 +3830,31 @@
         <v>94</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3846,31 +3862,31 @@
         <v>95</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>1281</v>
+        <v>409</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J97" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3878,31 +3894,31 @@
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>922</v>
+        <v>700</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3910,31 +3926,31 @@
         <v>97</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3942,31 +3958,31 @@
         <v>98</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>700</v>
+        <v>844</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3974,13 +3990,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>17</v>
@@ -3989,16 +4005,16 @@
         <v>887</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4006,31 +4022,31 @@
         <v>100</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F102" s="10" t="n">
-        <v>1470</v>
+        <v>922</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4038,13 +4054,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>17</v>
@@ -4053,16 +4069,16 @@
         <v>1122</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4070,31 +4086,31 @@
         <v>102</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F104" s="10" t="n">
-        <v>810</v>
+        <v>1281</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4102,31 +4118,31 @@
         <v>103</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="15" t="n">
-        <v>40916</v>
+        <v>30</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F105" s="10" t="n">
-        <v>5588</v>
+        <v>1470</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4134,31 +4150,31 @@
         <v>104</v>
       </c>
       <c r="B106" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C106" s="15" t="n">
-        <v>40941</v>
-      </c>
       <c r="D106" s="10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F106" s="10" t="n">
-        <v>5800</v>
+        <v>2634</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4172,7 +4188,7 @@
         <v>142</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>17</v>
@@ -4181,16 +4197,16 @@
         <v>2714</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4205,4 +4221,30 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>